--- a/data/hotels_by_city/Dallas/Dallas_shard_195.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_195.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>jeff H</t>
+  </si>
+  <si>
     <t>05/29/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>Veronica H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r567309949-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -195,6 +201,9 @@
     <t>March 2018</t>
   </si>
   <si>
+    <t>PequeAileen</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r564934403-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -214,6 +223,9 @@
   </si>
   <si>
     <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Steve R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r499492476-Econo_Lodge_Suites-Lewisville_Texas.html</t>
@@ -240,6 +252,9 @@
 The mattresses were lumpy but passable. The sheets were threadbare...I chose this hotel because of location and it's pet friendly status. I will not criticize the hotel as it was less than 80 dollars a night with a pet, but here are the details.There is no pool. The staff is rarely at the front desk during what most hotels would consider normal hours, and never at early or late hours. There is a complimentary breakfast consisting of orange drink, convenience store doughnuts, "make your own" waffles, and microwavable sausage biscuits, but they were not consistently stocked. The halls are stifling in the high 90s heat of Dallas because outside doors are left open.The room had a carpet that was best described as thoroughly used. There was a tear in it the size of a candy bar, likely from an animal chewing on it. There was gum and other stains. The room had not been sanitized. There was an empty flash marked with an X on top the AC that was only visible if you lay on the bed. There was a toothpaste tube top in the drain. The toilet tank was covered with a piece of packing material (not a porcelain lid). The toilet handle had to be held down in order for it to flush. Paint was peeling heavily near the toilet. There were rust stains on the walls, as well as black mold in patches. The mattresses were lumpy but passable. The sheets were threadbare but not in holes. The AC was not on when I entered and took hours to cool at maximum, which was about 75 degrees and only within 10 feet of the unit. The fridge was frozen, but still did not cool well. The thermostat in it was broken. It was sufficient for keeping things from spoiling for the three days I was there. I did not try the microwave but I saw people using the one in the breakfast room and it seemed to work (though a vending machine there was out of order).There were no visible pests. If you need a hotel in the spot this one is located, and you need a cheap one, I don't say don't stay here. Otherwise, avoid it.More</t>
   </si>
   <si>
+    <t>Dr.Ferdaus Ahma... A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r493037394-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -258,6 +273,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>KCBrock</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r467373596-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>MustangDeni</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r422637251-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -297,6 +318,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>skilesg</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r405459078-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -318,6 +342,9 @@
     <t>DO NOT STAY HERE! This hotel was simply disgusting! The pictures of the hotel are NOT what you get. Upon checking in, the fist impression was "what a dump!" For $60/night you can get a much better room at Motel 6. The carpet is disgusting, stained, and coming up in places. The AC in the room was not working upon arrival. We asked for another room but was told no and a few hours later someone came to fix it. To top every thing off, a bullet was found on the floor in the room... seriously! What if a young child found this!  I have never said this about a hotel... read my other reviews, but this needs to be closed down!More</t>
   </si>
   <si>
+    <t>tiarabryant</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r394936407-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -339,6 +366,9 @@
     <t>This is the most disgusting, filthiest place I've ever been to in my life! The carpet is filthy take your shoes off and walk inside the room they will turn black! Walls are dirty and it smells horrible inside the managers family and extended family lives there and they are the reason it's infested with roaches! Bugs everywhere the housekeeping ladies are rude as hell I asked for new sheets and she told me we don't change the top layer everyday I wanted to slap the hell out of her I'm complaining because this place needs to be renovated from the ground up. I hate this place so much!! I swear I hate it!!!!!!More</t>
   </si>
   <si>
+    <t>nohesitating</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r379385817-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -357,6 +387,9 @@
     <t>May 2016</t>
   </si>
   <si>
+    <t>Debra K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r336088828-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -378,6 +411,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>dduerr2013</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r329846856-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>I made this reservation in a hurry to have a place to stay the night after driving in horrible weather from Houston. I actually placed a chair on the door for fear someone might come in. The lighting in the bathroom is as bright as a night light. Very little of a roll of tissue is all that was found in this room. Holes in the ceiling where smoke detectors once were. Carpets are threadbare, holes in wall in bathroom,the tissue holder is empty and rusty.Only thing good is good thick towels and linens look brand new.What can you expect for $55.00? I got better at this rate in Ireland.Doesn't the health dept. check these places?More</t>
   </si>
   <si>
+    <t>SmartAJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r329426977-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -414,6 +453,9 @@
     <t>I stayed for one night and this was awful. Yes, the bathroom was clean and the room was clean, but seriously, it felt like a brothel, not a hotel. Was not worth the money. I will not stay there ever again.</t>
   </si>
   <si>
+    <t>Mike Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r319830739-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -435,6 +477,9 @@
     <t>We checked in Saturday I'm a diamond member I ask for a upgrade was told I can't be upgraded . The clerk checked us into a room that was not even clean rm#122 the walls had stains the bed had stains holes in wall the night stand was broken . I went back to clerk and demanded my money back . I was up graded to a suite which was no better the couch had stain s the walls had holes the a/c unit was new when lassie was a pup no running water in the counter sink the microwave didn't work and the box spring was broken so me and my wife ended up sleeping  on top of each other . I would get a sleeping bag and sleep outside before I stayed here again I called choice hotels and complained More</t>
   </si>
   <si>
+    <t>310gary</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r311785610-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -453,6 +498,9 @@
     <t>this room looked like it was being remodeled unpainted area under window area, No light bulb over the desk, numerous others lights did not work throughout the room and bathroom. Doorway at bathroom you step on the tack strip holding the carpet. towel rack at sink is broke and is missing parts, bathroom mirror is unsecured held in place with a few screws and old masking tape. tub water controls had been replaced and the new covers are smaller then the old one so you have a gap about an inch wide that is not covered. the tub water spout is loose. Toilet bowl is loose from the floor and rocks. bathroom had some holes knocked into them so someone did a very bad patch job and left it unfinished. Toilet paper holder was missing it's roll holder.More</t>
   </si>
   <si>
+    <t>katssalon</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r275523012-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -471,6 +519,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>Mike A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r256332982-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -486,6 +537,9 @@
     <t xml:space="preserve">i enjoy the stay. They make me feel secure had very clear surveillance camera to see outside the hotel parking lot. I carry equipment that I can't carry inside so give me a sense of security.  Also bed was comfortable and room was clean. </t>
   </si>
   <si>
+    <t>bedangled</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r230208570-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -510,6 +564,9 @@
     <t>Checked in by young man pm for room went to room room was fairly clean but halls had trash everywhere, not maintenance at all. Curtains all broken hanging with rubberband, drawer missing,kick board missing, a/C full of lint no filter clogged  whole family lots of children running in halls, parking lot, and lobby.I complained about trash young man at front desk said cleaning people come in at 7pm we checked in at 8 pm.More</t>
   </si>
   <si>
+    <t>Kathleen W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r226381559-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -528,6 +585,9 @@
     <t>Just checked out, thank god!   Cheap hotel,  but nasty. Sheets had blue marker on them? Walls were written on. Curtains broken,  not as advertised. I'm surprised choice hotels would want to be associated with such a disgusting hotel,  it's down right embarrassing actually. I've hotels in the past, but they have let this property go to shambles,  very sad because this is not the Econolodge I am used to or expect. This place is overrun with gypsies that hang out in the parking lot all night. Their kids play in the parking lot till late at night. I was trying to park last night in a spot so I could see my car, but had to park elsewhere because the gypsies were hanging out in the spot I wanted to park in.  I almost ran over the kids dolls and toys as I was driving thru the parking lot.  Not sure who is managing this place,  but they need some serious help. There is trash everywhere in  the parking lot. Clients at this hotel seem to be criminals,  I met some guy asking for help in the parking lot that showed me his prison tattoo numbered on his arm,  15 years he said, YIKES!  RUN AWAY!  I was only there 2 nights,  but I will never use this hotel again and would recommend that you don't either.  The staff was nice,  but between dealing with the shady guests and gypsies...Just checked out, thank god!   Cheap hotel,  but nasty. Sheets had blue marker on them? Walls were written on. Curtains broken,  not as advertised. I'm surprised choice hotels would want to be associated with such a disgusting hotel,  it's down right embarrassing actually. I've hotels in the past, but they have let this property go to shambles,  very sad because this is not the Econolodge I am used to or expect. This place is overrun with gypsies that hang out in the parking lot all night. Their kids play in the parking lot till late at night. I was trying to park last night in a spot so I could see my car, but had to park elsewhere because the gypsies were hanging out in the spot I wanted to park in.  I almost ran over the kids dolls and toys as I was driving thru the parking lot.  Not sure who is managing this place,  but they need some serious help. There is trash everywhere in  the parking lot. Clients at this hotel seem to be criminals,  I met some guy asking for help in the parking lot that showed me his prison tattoo numbered on his arm,  15 years he said, YIKES!  RUN AWAY!  I was only there 2 nights,  but I will never use this hotel again and would recommend that you don't either.  The staff was nice,  but between dealing with the shady guests and gypsies they seem burdened. The cops were there at least 3-4 times during my stay? As I was checking out the smoke alarms we going off,  but no one was evacuating, like what's going on here?  The tiles in the bathroom floor were losing the grout, cuz it was cracking so it was like stepping on sharp rocks,  ugghh. First room we had the toilet seat was cracked and unusable, and was a single room when we booked a double? They did move us to another room, but geez not a nice place. It's Texas and it's August 2014, so it's hot and the A/C WAS NOT ON WHEN WE CHECKED IN, NOr DID IT COOL THE ROOM PROPERLY! Honestly I did not feel that my car, my bf and I  , or the kids,  or personal belongings were safe in this hotel. I pray that someone at choice hotels sees this review and follows up because I can't imagine if they saw this property they would want to be affiliated with it in any way. More</t>
   </si>
   <si>
+    <t>1twangster</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r224461301-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -549,6 +609,9 @@
     <t>I've been a professional traveler for 30 years.I have never seen a hotel property this filthy.  There was trash all over the parking lot, in the lawn and in the landscaping.  The trash can in front of the lobby was overflowing.  There was a partially dismantled car in the parking lot.Filth.  Trash.  The place is a dump.The room wasn't up to par either.More</t>
   </si>
   <si>
+    <t>mk1945</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r220378003-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -564,6 +627,9 @@
     <t>This Econolodge was a great value for me during my trip to dfw. The beds were comfy and the people working there were very courteous and helpful. The staff recommended me an excellent barbecue place close to the hotel. Only complaint was that they didn't have a pool.</t>
   </si>
   <si>
+    <t>scorpionstorm</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r214977475-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -585,6 +651,9 @@
     <t>It looks like there in the middle of remodeling everything. Our room was older. Walls were pretty gross and dirty. Bathroom was not dirty but heavily stained. I found a couple cochroaches but hey its Texas desert. The beds were comfortable,  had flat screen tv and fridge in room. The staff was wonderful and very very pleasent. We would give this place another stay when they get all their remodelling done. Its very quiet at night which was nice we were exhausted :-) Not bad for price area great. More</t>
   </si>
   <si>
+    <t>oilderby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r209811728-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -606,6 +675,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>Steve L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r209766038-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -621,6 +693,9 @@
     <t>Stayed at this Hotel on June 7 2014 .. Do you miss your old college dorm  room from the 80's ? Well if so this is the place to stay. Complete with dark hallways and people sleeping right in the Hallway. I arrived with a reservation for a non smoking room. However, upon check in I was told there were not any available.  So we preceded to the "George Burns and Sammie Davis Suite"  I call it this because of the amount of smoke in the room. I even went to fluff my pillow and dirt came out of it. Oh course there were no other hotel rooms available at this hotel or another that night so we stayed. As I read other reviews of this hotel I too experience the children running down the hall and screaming all night. This hotel would have been the perfect setting for a Horror Flick. Keep driving do not stop here. They should strip this place of the Econo lodge Logo. You have been warned. FYI no breakfast served as advertised .More</t>
   </si>
   <si>
+    <t>lydiapugh94</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r205289615-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -639,6 +714,9 @@
     <t>Me and my boyfriend stay at this hotel on may 8th. This hotel was not what I thought it would be from its add on expedia. I had read reviews from 2011 and and 2012 but figured they had improved by   2014. The halls reeked of smoke and were filthy. People were running down the halls and children crying all over the place. They advertised breakfast but when I went down at 7 the "breakfast" room was dark with trash everywhere. I wanted to cancle my reservation for the following night but no manager was anywhere to be found.Even though the night before I was told there would be a manager available  24 hours. But that morning I rang the bell numerous times and even called the hotel phone , nothing. This hotel was filthy and management was non existent.  Do not stay at this hotel unless you have no possible choice.More</t>
   </si>
   <si>
+    <t>Ellen L</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r201618905-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -666,6 +744,9 @@
     <t>The hotel was filthy, guests were extremely noisy ALL night long.  Curtains broken, walls scribbled on, Air Conditioner grill broken off and air conditioner was all full of mildew.  Bathroom disgusting.Shower curtain rod was half hanging down. Management made no attempt to control the loud yelling and slamming doors all night long.    We would have left immediately if it wasn't a prepaid stay.  We could not get our money back.    I would not recommend this place to anyone.More</t>
   </si>
   <si>
+    <t>PejgA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r181311915-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -693,6 +774,9 @@
     <t>Upon check-in: the toilet seat was missing; several missing light bulbs; a bolt was used to attach tub faucet handle; cable was removed from TV(no TV channels); smoke detector was removed/missing from ceiling; a bobby pin was used to keep curtains closed(missing curtain pin hangers); and the worst discovery of all - BEDBUGS! I slept with the light on.The "free breakfast" in the morning consisted of 2 pieces of toast and a weak cup of coffee.  No fruit/juice/cereal/eggs/milk.  There was a waffle maker, with an empty batter container.  2 of the 4-slice toaster slots did not work.  The hotel staff delivered 3 frozen packaged sausage biscuits as we milled about for our toast and coffee.I won't be back.More</t>
   </si>
   <si>
+    <t>txtootsie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r164894074-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -720,6 +804,9 @@
     <t>This was the most disgusting room I had ever booked! Most of the Econo Lodges I have stayed in are old and worn, but I had never seen one that was filthy. The towels had stains on them, the bathroom was dirty which included standing dirt on the floor and the room stunk horribly of cigarette smoke. There was a cigarette burn on the bedspread and the window curtain was stained with the hem hanging down. The final straw was a blood stain on the sheet-like it hadn't even been changed.  The refrigerator didn't work and there was no ice in the single machine in the building. I couldn't take it-I left. This is a Choice Hotel - there was nothing "choice" about it. I have notified the Choice people and they were horrified. If I could give them zero stars, I would.More</t>
   </si>
   <si>
+    <t>Joe H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r159356516-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -738,6 +825,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Lizzie562</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r145050788-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -753,6 +843,9 @@
     <t xml:space="preserve">There is no better stay than here,they are great!! The rooms are clean and they are super nice everytime I fly in!! It is quiet and no hassels with the parking, I forgot my key twice and with no questions asked they replaced it!! Coming from out of state is hard enough and they make things so much easier!!!Close to freeway,restuarants,Grapevine Mall and much more!! I recommend them! </t>
   </si>
   <si>
+    <t>Devonna B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r132481511-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -774,6 +867,9 @@
     <t>This hotel is disgusting. When we arrived, some lady was being handcuffed and hauled out by the police. The front desk person looked like he had just got out of bed. The waffle batter at breakfast was so watered down it was terrible.They had bread and corndogs if you didn't want waffles. I didn't realize how bad the waffles were until we stayed at an another hotel and the breakfast was awesome. Same price for the room. When we checked out, I rang the service bell for about 10 minutes. Nobody came.More</t>
   </si>
   <si>
+    <t>dlyates99</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r132375628-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -792,6 +888,9 @@
     <t>I made reservations for 2 rooms, 2 nights at the Lewisville, TX facility, 6/15-6/16.. I was quoted an online senior rate of $81.34, yet was charged $90.38. These were the worst motel rooms we've ever stayed in. First room given was so badly damaged, with the a/c front hanging off, and large cuts in the desk and headboard. We asked to be moved. I am disabled but told the only other room available was upstairs. Upon returning the second day, the room had not been cleaned &amp; the clerk said that the cleaning person didn’t shown up for work until after 1:30pm, yet it was 8:30pm before arrival back to my room. The clerk was not helpful and was never at the front desk. We had to ring the bell continually to get his attention. We were told that the front door would be locked at night but the south end door would be unlocked. Upon returning on Fri night, all doors were locked. This was a bad experience &amp; I will never again book reservations with an Econo Lodge.More</t>
   </si>
   <si>
+    <t>TexanTravelerJ</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r119146542-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -813,6 +912,9 @@
     <t>This hotel shows its age in the carpets and walls.  It just has a dismal feeling.  My room was clean and the price was right (around $40).  There were weird people yelling and banging on the doors in the hallway and that was quite disturbing.  If you are okay with a seedy motel type experience and just need a place to rest your head, this is an acceptable place to stay.  It's just not preferred.  The location is convenient, right off I-35.More</t>
   </si>
   <si>
+    <t>jessamyn</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r116967388-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -834,6 +936,9 @@
     <t>I stayed here overnight when I got in to DFW too late to go to my eventual destination. The people, all four guys, at the front desk were very nice, though seemed to balk when I requested an upper floor room. My room was fine, but it was during the height of the heat wave, the AC was not on, and it was probably 90 degrees in the room when I opened the door. The hallways weren't, or didn't seem to be, air conditioned. I turned the AC on full blast but the room never did get very cool.The rooms seemed somewhat well-designed for a budget motel. Nice looking, ample outlets, clean bathrooms. The public areas are a little less nice. Hallways and dining lounge were somewhat dirty and there was basically nothing left in the breakfast lounge by the time I got downstairs at 8:30 am. No in-room coffee maker. Shower was fine but water never got very cool. Wifi worked well and since I mostly needed to check email, sleep and hit the road, it served my purposes just fine.More</t>
   </si>
   <si>
+    <t>Terraplas</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r116452425-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -849,6 +954,9 @@
     <t>A/c in original room did not work. We were moved to an upgraded room asap. No problems at all after that. Will stay there again.</t>
   </si>
   <si>
+    <t>Adande</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r55676994-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -867,6 +975,9 @@
     <t>January 2010</t>
   </si>
   <si>
+    <t>raineymack</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r39077345-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -885,6 +996,9 @@
     <t>August 2009</t>
   </si>
   <si>
+    <t>cflorez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r26346194-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -906,6 +1020,9 @@
     <t>Total cost for this motel was $50.80 for a very small King bed.I normally don't write reviews, but this was the nastiest motel I stayed in.  It looks good from the outside, but the room itself was just gross!The walls were a mess, no remote control, the sheets had hairs on them, 60% of the lights didn't work and the host said they didn't have any other rooms available.  Why?  I have no doubt they use this for men to bring their girlfriends.  There were hardly any cars in the parking lot.It was so late at night and I had to be somewhere walking distance in the morning was the only reason I didn't seek another motel!!I DO NOT RECOMMEND THIS MOTEL!!More</t>
   </si>
   <si>
+    <t>Paul M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r19469491-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -922,6 +1039,9 @@
   </si>
   <si>
     <t>August 2008</t>
+  </si>
+  <si>
+    <t>diabloser</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r6645835-Econo_Lodge_Suites-Lewisville_Texas.html</t>
@@ -1441,43 +1561,47 @@
       <c r="A2" t="n">
         <v>36469</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>132074</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1491,50 +1615,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36469</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>132075</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1548,50 +1676,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36469</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>132076</v>
+      </c>
+      <c r="C4" t="s">
+        <v>61</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="L4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M4" t="n">
         <v>5</v>
       </c>
       <c r="N4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -1611,50 +1743,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36469</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>40</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="O5" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="n">
@@ -1672,50 +1808,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36469</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>132077</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1729,50 +1869,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36469</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>132078</v>
+      </c>
+      <c r="C7" t="s">
+        <v>83</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="J7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="K7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="O7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1790,50 +1934,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36469</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>132079</v>
+      </c>
+      <c r="C8" t="s">
+        <v>91</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="J8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
+        <v>97</v>
+      </c>
+      <c r="O8" t="s">
         <v>90</v>
-      </c>
-      <c r="O8" t="s">
-        <v>84</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1847,50 +1995,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36469</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>132080</v>
+      </c>
+      <c r="C9" t="s">
+        <v>98</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="J9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="K9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P9" t="n">
         <v>1</v>
@@ -1910,50 +2062,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36469</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>132081</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
@@ -1967,50 +2123,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36469</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>132082</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
@@ -2028,50 +2188,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36469</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>71110</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2085,50 +2249,54 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36469</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>57160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>129</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="L13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2142,50 +2310,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36469</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>132083</v>
+      </c>
+      <c r="C14" t="s">
+        <v>137</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="J14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="O14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -2205,50 +2377,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36469</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>15270</v>
+      </c>
+      <c r="C15" t="s">
+        <v>143</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>144</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="J15" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
       <c r="K15" t="s">
-        <v>133</v>
+        <v>147</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>148</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="O15" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -2262,41 +2438,45 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36469</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>132084</v>
+      </c>
+      <c r="C16" t="s">
+        <v>151</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="J16" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="K16" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="L16" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="M16" t="n">
         <v>3</v>
@@ -2315,50 +2495,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36469</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>132085</v>
+      </c>
+      <c r="C17" t="s">
+        <v>158</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>144</v>
+        <v>160</v>
       </c>
       <c r="J17" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="K17" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="L17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="O17" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P17" t="n">
         <v>1</v>
@@ -2382,41 +2566,45 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>147</v>
+        <v>163</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36469</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>8047</v>
+      </c>
+      <c r="C18" t="s">
+        <v>165</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="J18" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
       <c r="K18" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="L18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
@@ -2445,41 +2633,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36469</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>132086</v>
+      </c>
+      <c r="C19" t="s">
+        <v>171</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="J19" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="K19" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="L19" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="M19" t="n">
         <v>1</v>
@@ -2506,47 +2698,51 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="X19" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Y19" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36469</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>44890</v>
+      </c>
+      <c r="C20" t="s">
+        <v>180</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>162</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>163</v>
+        <v>182</v>
       </c>
       <c r="J20" t="s">
-        <v>164</v>
+        <v>183</v>
       </c>
       <c r="K20" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="L20" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -2573,56 +2769,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="X20" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Y20" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36469</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>99530</v>
+      </c>
+      <c r="C21" t="s">
+        <v>187</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>168</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>169</v>
+        <v>189</v>
       </c>
       <c r="J21" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="K21" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="L21" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="O21" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P21" t="n">
         <v>1</v>
@@ -2638,47 +2838,51 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="X21" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Y21" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36469</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>132087</v>
+      </c>
+      <c r="C22" t="s">
+        <v>195</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>175</v>
+        <v>196</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>197</v>
       </c>
       <c r="J22" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="K22" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="L22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="M22" t="n">
         <v>5</v>
@@ -2707,50 +2911,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36469</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>132088</v>
+      </c>
+      <c r="C23" t="s">
+        <v>201</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="J23" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="K23" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="L23" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="M23" t="n">
         <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="O23" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -2762,56 +2970,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="X23" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Y23" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36469</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>132089</v>
+      </c>
+      <c r="C24" t="s">
+        <v>209</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>187</v>
+        <v>210</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>188</v>
+        <v>211</v>
       </c>
       <c r="J24" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="K24" t="s">
-        <v>190</v>
+        <v>213</v>
       </c>
       <c r="L24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>192</v>
+        <v>215</v>
       </c>
       <c r="O24" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2835,50 +3047,54 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>191</v>
+        <v>214</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36469</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>7524</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>194</v>
+        <v>218</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>195</v>
+        <v>219</v>
       </c>
       <c r="J25" t="s">
-        <v>189</v>
+        <v>212</v>
       </c>
       <c r="K25" t="s">
-        <v>196</v>
+        <v>220</v>
       </c>
       <c r="L25" t="s">
-        <v>197</v>
+        <v>221</v>
       </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
       <c r="N25" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="O25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P25" t="n">
         <v>1</v>
@@ -2900,47 +3116,51 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="X25" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Y25" t="s">
-        <v>198</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36469</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>132090</v>
+      </c>
+      <c r="C26" t="s">
+        <v>223</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="J26" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="K26" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="M26" t="n">
         <v>2</v>
@@ -2967,56 +3187,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="X26" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Y26" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36469</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>12178</v>
+      </c>
+      <c r="C27" t="s">
+        <v>230</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="J27" t="s">
-        <v>207</v>
+        <v>233</v>
       </c>
       <c r="K27" t="s">
-        <v>208</v>
+        <v>234</v>
       </c>
       <c r="L27" t="s">
-        <v>209</v>
+        <v>235</v>
       </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
       <c r="N27" t="s">
-        <v>210</v>
+        <v>236</v>
       </c>
       <c r="O27" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -3038,56 +3262,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>211</v>
+        <v>237</v>
       </c>
       <c r="X27" t="s">
-        <v>212</v>
+        <v>238</v>
       </c>
       <c r="Y27" t="s">
-        <v>213</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36469</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>132091</v>
+      </c>
+      <c r="C28" t="s">
+        <v>240</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>214</v>
+        <v>241</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="J28" t="s">
-        <v>216</v>
+        <v>243</v>
       </c>
       <c r="K28" t="s">
-        <v>217</v>
+        <v>244</v>
       </c>
       <c r="L28" t="s">
-        <v>218</v>
+        <v>245</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>219</v>
+        <v>246</v>
       </c>
       <c r="O28" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P28" t="n">
         <v>2</v>
@@ -3109,56 +3337,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>220</v>
+        <v>247</v>
       </c>
       <c r="X28" t="s">
-        <v>221</v>
+        <v>248</v>
       </c>
       <c r="Y28" t="s">
-        <v>222</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36469</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>132092</v>
+      </c>
+      <c r="C29" t="s">
+        <v>250</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>223</v>
+        <v>251</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>224</v>
+        <v>252</v>
       </c>
       <c r="J29" t="s">
-        <v>225</v>
+        <v>253</v>
       </c>
       <c r="K29" t="s">
-        <v>226</v>
+        <v>254</v>
       </c>
       <c r="L29" t="s">
-        <v>227</v>
+        <v>255</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>228</v>
+        <v>256</v>
       </c>
       <c r="O29" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P29" t="n">
         <v>1</v>
@@ -3180,56 +3412,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>229</v>
+        <v>257</v>
       </c>
       <c r="X29" t="s">
-        <v>230</v>
+        <v>258</v>
       </c>
       <c r="Y29" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36469</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>67131</v>
+      </c>
+      <c r="C30" t="s">
+        <v>260</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="J30" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="K30" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="L30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="O30" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="P30" t="n">
         <v>5</v>
@@ -3253,41 +3489,45 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36469</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>132093</v>
+      </c>
+      <c r="C31" t="s">
+        <v>267</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>238</v>
+        <v>268</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>239</v>
+        <v>269</v>
       </c>
       <c r="J31" t="s">
-        <v>240</v>
+        <v>270</v>
       </c>
       <c r="K31" t="s">
-        <v>241</v>
+        <v>271</v>
       </c>
       <c r="L31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
@@ -3316,50 +3556,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>242</v>
+        <v>272</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36469</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>132094</v>
+      </c>
+      <c r="C32" t="s">
+        <v>273</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>243</v>
+        <v>274</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>244</v>
+        <v>275</v>
       </c>
       <c r="J32" t="s">
-        <v>245</v>
+        <v>276</v>
       </c>
       <c r="K32" t="s">
-        <v>246</v>
+        <v>277</v>
       </c>
       <c r="L32" t="s">
-        <v>247</v>
+        <v>278</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
       <c r="N32" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="O32" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P32" t="n">
         <v>2</v>
@@ -3381,56 +3625,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="X32" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Y32" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36469</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>132095</v>
+      </c>
+      <c r="C33" t="s">
+        <v>281</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>250</v>
+        <v>282</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="J33" t="s">
-        <v>252</v>
+        <v>284</v>
       </c>
       <c r="K33" t="s">
-        <v>253</v>
+        <v>285</v>
       </c>
       <c r="L33" t="s">
-        <v>254</v>
+        <v>286</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>248</v>
+        <v>279</v>
       </c>
       <c r="O33" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
@@ -3452,56 +3700,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="X33" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Y33" t="s">
-        <v>255</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36469</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>132096</v>
+      </c>
+      <c r="C34" t="s">
+        <v>288</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>289</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>257</v>
+        <v>290</v>
       </c>
       <c r="J34" t="s">
-        <v>258</v>
+        <v>291</v>
       </c>
       <c r="K34" t="s">
-        <v>259</v>
+        <v>292</v>
       </c>
       <c r="L34" t="s">
-        <v>260</v>
+        <v>293</v>
       </c>
       <c r="M34" t="n">
         <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>261</v>
+        <v>294</v>
       </c>
       <c r="O34" t="s">
-        <v>193</v>
+        <v>216</v>
       </c>
       <c r="P34" t="n">
         <v>3</v>
@@ -3523,56 +3775,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="X34" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Y34" t="s">
-        <v>262</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36469</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>132097</v>
+      </c>
+      <c r="C35" t="s">
+        <v>296</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>263</v>
+        <v>297</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>264</v>
+        <v>298</v>
       </c>
       <c r="J35" t="s">
-        <v>265</v>
+        <v>299</v>
       </c>
       <c r="K35" t="s">
-        <v>266</v>
+        <v>300</v>
       </c>
       <c r="L35" t="s">
-        <v>267</v>
+        <v>301</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>268</v>
+        <v>302</v>
       </c>
       <c r="O35" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P35" t="n">
         <v>5</v>
@@ -3590,47 +3846,51 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="X35" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="Y35" t="s">
-        <v>269</v>
+        <v>303</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36469</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>132098</v>
+      </c>
+      <c r="C36" t="s">
+        <v>304</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>270</v>
+        <v>305</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>271</v>
+        <v>306</v>
       </c>
       <c r="J36" t="s">
-        <v>272</v>
+        <v>307</v>
       </c>
       <c r="K36" t="s">
-        <v>273</v>
+        <v>308</v>
       </c>
       <c r="L36" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
       <c r="M36" t="n">
         <v>4</v>
@@ -3659,50 +3919,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>274</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36469</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>132099</v>
+      </c>
+      <c r="C37" t="s">
+        <v>310</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="J37" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="L37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="O37" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -3726,50 +3990,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36469</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>132100</v>
+      </c>
+      <c r="C38" t="s">
+        <v>317</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>281</v>
+        <v>318</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>282</v>
+        <v>319</v>
       </c>
       <c r="J38" t="s">
-        <v>283</v>
+        <v>320</v>
       </c>
       <c r="K38" t="s">
-        <v>284</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>286</v>
+        <v>323</v>
       </c>
       <c r="O38" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -3793,50 +4061,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>285</v>
+        <v>322</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36469</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>132101</v>
+      </c>
+      <c r="C39" t="s">
+        <v>324</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>287</v>
+        <v>325</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>288</v>
+        <v>326</v>
       </c>
       <c r="J39" t="s">
-        <v>289</v>
+        <v>327</v>
       </c>
       <c r="K39" t="s">
-        <v>290</v>
+        <v>328</v>
       </c>
       <c r="L39" t="s">
-        <v>291</v>
+        <v>329</v>
       </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
       <c r="N39" t="s">
-        <v>292</v>
+        <v>330</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
         <v>1</v>
@@ -3860,50 +4132,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>293</v>
+        <v>331</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36469</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>7271</v>
+      </c>
+      <c r="C40" t="s">
+        <v>332</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="J40" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="K40" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="L40" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="M40" t="n">
         <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="O40" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="P40" t="n">
         <v>3</v>
@@ -3927,41 +4203,45 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36469</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>132102</v>
+      </c>
+      <c r="C41" t="s">
+        <v>339</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>301</v>
+        <v>341</v>
       </c>
       <c r="J41" t="s">
-        <v>302</v>
+        <v>342</v>
       </c>
       <c r="K41" t="s">
-        <v>303</v>
+        <v>343</v>
       </c>
       <c r="L41" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="M41" t="n">
         <v>5</v>
@@ -3980,7 +4260,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_195.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_195.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="312">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,42 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>jeff H</t>
-  </si>
-  <si>
-    <t>05/29/2018</t>
+    <t>08/18/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r607028089-Econo_Lodge_Suites-Lewisville_Texas.html</t>
+  </si>
+  <si>
+    <t>56161</t>
+  </si>
+  <si>
+    <t>225895</t>
+  </si>
+  <si>
+    <t>607028089</t>
+  </si>
+  <si>
+    <t>08/16/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No so good experience </t>
+  </si>
+  <si>
+    <t>We book to stay 2 nights. We arrive on property, hotel is in good location, near I35 and has gas stations and Cracker Barrel near it.We check in and show the room, the bed cover were stain by Clorox. Color faded, well is k, at least they are clean. A/C was falling apart (see pictures). I ask housekeeping if I could have 2 extra towel, we are 4 and only 2 in the room and a roll of toilet paper, because the one in the restroom was half way used. She kind of gave me a attitude. She never left the extra toilet paper. The A/C was fix later on with a piece of tape. Hey at least got fix.The restroom ceiling is full of mold (see pictures). And I had 2 crickets in the room.To wrap it up, breakfast is poor and not nutritious.You get what you pay for. I give it a 2/5 star.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We book to stay 2 nights. We arrive on property, hotel is in good location, near I35 and has gas stations and Cracker Barrel near it.We check in and show the room, the bed cover were stain by Clorox. Color faded, well is k, at least they are clean. A/C was falling apart (see pictures). I ask housekeeping if I could have 2 extra towel, we are 4 and only 2 in the room and a roll of toilet paper, because the one in the restroom was half way used. She kind of gave me a attitude. She never left the extra toilet paper. The A/C was fix later on with a piece of tape. Hey at least got fix.The restroom ceiling is full of mold (see pictures). And I had 2 crickets in the room.To wrap it up, breakfast is poor and not nutritious.You get what you pay for. I give it a 2/5 star.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r579999423-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
-    <t>56161</t>
-  </si>
-  <si>
-    <t>225895</t>
-  </si>
-  <si>
     <t>579999423</t>
   </si>
   <si>
@@ -180,9 +201,6 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
-    <t>Veronica H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r567309949-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -201,9 +219,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t>PequeAileen</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r564934403-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -220,12 +235,6 @@
   </si>
   <si>
     <t>July 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Steve R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r499492476-Econo_Lodge_Suites-Lewisville_Texas.html</t>
@@ -252,9 +261,6 @@
 The mattresses were lumpy but passable. The sheets were threadbare...I chose this hotel because of location and it's pet friendly status. I will not criticize the hotel as it was less than 80 dollars a night with a pet, but here are the details.There is no pool. The staff is rarely at the front desk during what most hotels would consider normal hours, and never at early or late hours. There is a complimentary breakfast consisting of orange drink, convenience store doughnuts, "make your own" waffles, and microwavable sausage biscuits, but they were not consistently stocked. The halls are stifling in the high 90s heat of Dallas because outside doors are left open.The room had a carpet that was best described as thoroughly used. There was a tear in it the size of a candy bar, likely from an animal chewing on it. There was gum and other stains. The room had not been sanitized. There was an empty flash marked with an X on top the AC that was only visible if you lay on the bed. There was a toothpaste tube top in the drain. The toilet tank was covered with a piece of packing material (not a porcelain lid). The toilet handle had to be held down in order for it to flush. Paint was peeling heavily near the toilet. There were rust stains on the walls, as well as black mold in patches. The mattresses were lumpy but passable. The sheets were threadbare but not in holes. The AC was not on when I entered and took hours to cool at maximum, which was about 75 degrees and only within 10 feet of the unit. The fridge was frozen, but still did not cool well. The thermostat in it was broken. It was sufficient for keeping things from spoiling for the three days I was there. I did not try the microwave but I saw people using the one in the breakfast room and it seemed to work (though a vending machine there was out of order).There were no visible pests. If you need a hotel in the spot this one is located, and you need a cheap one, I don't say don't stay here. Otherwise, avoid it.More</t>
   </si>
   <si>
-    <t>Dr.Ferdaus Ahma... A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r493037394-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -273,9 +279,6 @@
     <t>May 2017</t>
   </si>
   <si>
-    <t>KCBrock</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r467373596-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -297,9 +300,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>MustangDeni</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r422637251-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -318,9 +318,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t>skilesg</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r405459078-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -342,9 +339,6 @@
     <t>DO NOT STAY HERE! This hotel was simply disgusting! The pictures of the hotel are NOT what you get. Upon checking in, the fist impression was "what a dump!" For $60/night you can get a much better room at Motel 6. The carpet is disgusting, stained, and coming up in places. The AC in the room was not working upon arrival. We asked for another room but was told no and a few hours later someone came to fix it. To top every thing off, a bullet was found on the floor in the room... seriously! What if a young child found this!  I have never said this about a hotel... read my other reviews, but this needs to be closed down!More</t>
   </si>
   <si>
-    <t>tiarabryant</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r394936407-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -366,9 +360,6 @@
     <t>This is the most disgusting, filthiest place I've ever been to in my life! The carpet is filthy take your shoes off and walk inside the room they will turn black! Walls are dirty and it smells horrible inside the managers family and extended family lives there and they are the reason it's infested with roaches! Bugs everywhere the housekeeping ladies are rude as hell I asked for new sheets and she told me we don't change the top layer everyday I wanted to slap the hell out of her I'm complaining because this place needs to be renovated from the ground up. I hate this place so much!! I swear I hate it!!!!!!More</t>
   </si>
   <si>
-    <t>nohesitating</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r379385817-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -387,9 +378,6 @@
     <t>May 2016</t>
   </si>
   <si>
-    <t>Debra K</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r336088828-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -411,9 +399,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>dduerr2013</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r329846856-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -435,9 +420,6 @@
     <t>I made this reservation in a hurry to have a place to stay the night after driving in horrible weather from Houston. I actually placed a chair on the door for fear someone might come in. The lighting in the bathroom is as bright as a night light. Very little of a roll of tissue is all that was found in this room. Holes in the ceiling where smoke detectors once were. Carpets are threadbare, holes in wall in bathroom,the tissue holder is empty and rusty.Only thing good is good thick towels and linens look brand new.What can you expect for $55.00? I got better at this rate in Ireland.Doesn't the health dept. check these places?More</t>
   </si>
   <si>
-    <t>SmartAJ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r329426977-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -453,9 +435,6 @@
     <t>I stayed for one night and this was awful. Yes, the bathroom was clean and the room was clean, but seriously, it felt like a brothel, not a hotel. Was not worth the money. I will not stay there ever again.</t>
   </si>
   <si>
-    <t>Mike Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r319830739-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -477,9 +456,6 @@
     <t>We checked in Saturday I'm a diamond member I ask for a upgrade was told I can't be upgraded . The clerk checked us into a room that was not even clean rm#122 the walls had stains the bed had stains holes in wall the night stand was broken . I went back to clerk and demanded my money back . I was up graded to a suite which was no better the couch had stain s the walls had holes the a/c unit was new when lassie was a pup no running water in the counter sink the microwave didn't work and the box spring was broken so me and my wife ended up sleeping  on top of each other . I would get a sleeping bag and sleep outside before I stayed here again I called choice hotels and complained More</t>
   </si>
   <si>
-    <t>310gary</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r311785610-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -498,9 +474,6 @@
     <t>this room looked like it was being remodeled unpainted area under window area, No light bulb over the desk, numerous others lights did not work throughout the room and bathroom. Doorway at bathroom you step on the tack strip holding the carpet. towel rack at sink is broke and is missing parts, bathroom mirror is unsecured held in place with a few screws and old masking tape. tub water controls had been replaced and the new covers are smaller then the old one so you have a gap about an inch wide that is not covered. the tub water spout is loose. Toilet bowl is loose from the floor and rocks. bathroom had some holes knocked into them so someone did a very bad patch job and left it unfinished. Toilet paper holder was missing it's roll holder.More</t>
   </si>
   <si>
-    <t>katssalon</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r275523012-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -519,9 +492,6 @@
     <t>May 2015</t>
   </si>
   <si>
-    <t>Mike A</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r256332982-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -537,9 +507,6 @@
     <t xml:space="preserve">i enjoy the stay. They make me feel secure had very clear surveillance camera to see outside the hotel parking lot. I carry equipment that I can't carry inside so give me a sense of security.  Also bed was comfortable and room was clean. </t>
   </si>
   <si>
-    <t>bedangled</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r230208570-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -564,9 +531,6 @@
     <t>Checked in by young man pm for room went to room room was fairly clean but halls had trash everywhere, not maintenance at all. Curtains all broken hanging with rubberband, drawer missing,kick board missing, a/C full of lint no filter clogged  whole family lots of children running in halls, parking lot, and lobby.I complained about trash young man at front desk said cleaning people come in at 7pm we checked in at 8 pm.More</t>
   </si>
   <si>
-    <t>Kathleen W</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r226381559-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -585,9 +549,6 @@
     <t>Just checked out, thank god!   Cheap hotel,  but nasty. Sheets had blue marker on them? Walls were written on. Curtains broken,  not as advertised. I'm surprised choice hotels would want to be associated with such a disgusting hotel,  it's down right embarrassing actually. I've hotels in the past, but they have let this property go to shambles,  very sad because this is not the Econolodge I am used to or expect. This place is overrun with gypsies that hang out in the parking lot all night. Their kids play in the parking lot till late at night. I was trying to park last night in a spot so I could see my car, but had to park elsewhere because the gypsies were hanging out in the spot I wanted to park in.  I almost ran over the kids dolls and toys as I was driving thru the parking lot.  Not sure who is managing this place,  but they need some serious help. There is trash everywhere in  the parking lot. Clients at this hotel seem to be criminals,  I met some guy asking for help in the parking lot that showed me his prison tattoo numbered on his arm,  15 years he said, YIKES!  RUN AWAY!  I was only there 2 nights,  but I will never use this hotel again and would recommend that you don't either.  The staff was nice,  but between dealing with the shady guests and gypsies...Just checked out, thank god!   Cheap hotel,  but nasty. Sheets had blue marker on them? Walls were written on. Curtains broken,  not as advertised. I'm surprised choice hotels would want to be associated with such a disgusting hotel,  it's down right embarrassing actually. I've hotels in the past, but they have let this property go to shambles,  very sad because this is not the Econolodge I am used to or expect. This place is overrun with gypsies that hang out in the parking lot all night. Their kids play in the parking lot till late at night. I was trying to park last night in a spot so I could see my car, but had to park elsewhere because the gypsies were hanging out in the spot I wanted to park in.  I almost ran over the kids dolls and toys as I was driving thru the parking lot.  Not sure who is managing this place,  but they need some serious help. There is trash everywhere in  the parking lot. Clients at this hotel seem to be criminals,  I met some guy asking for help in the parking lot that showed me his prison tattoo numbered on his arm,  15 years he said, YIKES!  RUN AWAY!  I was only there 2 nights,  but I will never use this hotel again and would recommend that you don't either.  The staff was nice,  but between dealing with the shady guests and gypsies they seem burdened. The cops were there at least 3-4 times during my stay? As I was checking out the smoke alarms we going off,  but no one was evacuating, like what's going on here?  The tiles in the bathroom floor were losing the grout, cuz it was cracking so it was like stepping on sharp rocks,  ugghh. First room we had the toilet seat was cracked and unusable, and was a single room when we booked a double? They did move us to another room, but geez not a nice place. It's Texas and it's August 2014, so it's hot and the A/C WAS NOT ON WHEN WE CHECKED IN, NOr DID IT COOL THE ROOM PROPERLY! Honestly I did not feel that my car, my bf and I  , or the kids,  or personal belongings were safe in this hotel. I pray that someone at choice hotels sees this review and follows up because I can't imagine if they saw this property they would want to be affiliated with it in any way. More</t>
   </si>
   <si>
-    <t>1twangster</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r224461301-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -609,9 +570,6 @@
     <t>I've been a professional traveler for 30 years.I have never seen a hotel property this filthy.  There was trash all over the parking lot, in the lawn and in the landscaping.  The trash can in front of the lobby was overflowing.  There was a partially dismantled car in the parking lot.Filth.  Trash.  The place is a dump.The room wasn't up to par either.More</t>
   </si>
   <si>
-    <t>mk1945</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r220378003-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -627,9 +585,6 @@
     <t>This Econolodge was a great value for me during my trip to dfw. The beds were comfy and the people working there were very courteous and helpful. The staff recommended me an excellent barbecue place close to the hotel. Only complaint was that they didn't have a pool.</t>
   </si>
   <si>
-    <t>scorpionstorm</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r214977475-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -651,9 +606,6 @@
     <t>It looks like there in the middle of remodeling everything. Our room was older. Walls were pretty gross and dirty. Bathroom was not dirty but heavily stained. I found a couple cochroaches but hey its Texas desert. The beds were comfortable,  had flat screen tv and fridge in room. The staff was wonderful and very very pleasent. We would give this place another stay when they get all their remodelling done. Its very quiet at night which was nice we were exhausted :-) Not bad for price area great. More</t>
   </si>
   <si>
-    <t>oilderby</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r209811728-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -675,9 +627,6 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
-    <t>Steve L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r209766038-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -693,9 +642,6 @@
     <t>Stayed at this Hotel on June 7 2014 .. Do you miss your old college dorm  room from the 80's ? Well if so this is the place to stay. Complete with dark hallways and people sleeping right in the Hallway. I arrived with a reservation for a non smoking room. However, upon check in I was told there were not any available.  So we preceded to the "George Burns and Sammie Davis Suite"  I call it this because of the amount of smoke in the room. I even went to fluff my pillow and dirt came out of it. Oh course there were no other hotel rooms available at this hotel or another that night so we stayed. As I read other reviews of this hotel I too experience the children running down the hall and screaming all night. This hotel would have been the perfect setting for a Horror Flick. Keep driving do not stop here. They should strip this place of the Econo lodge Logo. You have been warned. FYI no breakfast served as advertised .More</t>
   </si>
   <si>
-    <t>lydiapugh94</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r205289615-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -714,9 +660,6 @@
     <t>Me and my boyfriend stay at this hotel on may 8th. This hotel was not what I thought it would be from its add on expedia. I had read reviews from 2011 and and 2012 but figured they had improved by   2014. The halls reeked of smoke and were filthy. People were running down the halls and children crying all over the place. They advertised breakfast but when I went down at 7 the "breakfast" room was dark with trash everywhere. I wanted to cancle my reservation for the following night but no manager was anywhere to be found.Even though the night before I was told there would be a manager available  24 hours. But that morning I rang the bell numerous times and even called the hotel phone , nothing. This hotel was filthy and management was non existent.  Do not stay at this hotel unless you have no possible choice.More</t>
   </si>
   <si>
-    <t>Ellen L</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r201618905-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -744,9 +687,6 @@
     <t>The hotel was filthy, guests were extremely noisy ALL night long.  Curtains broken, walls scribbled on, Air Conditioner grill broken off and air conditioner was all full of mildew.  Bathroom disgusting.Shower curtain rod was half hanging down. Management made no attempt to control the loud yelling and slamming doors all night long.    We would have left immediately if it wasn't a prepaid stay.  We could not get our money back.    I would not recommend this place to anyone.More</t>
   </si>
   <si>
-    <t>PejgA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r181311915-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -774,9 +714,6 @@
     <t>Upon check-in: the toilet seat was missing; several missing light bulbs; a bolt was used to attach tub faucet handle; cable was removed from TV(no TV channels); smoke detector was removed/missing from ceiling; a bobby pin was used to keep curtains closed(missing curtain pin hangers); and the worst discovery of all - BEDBUGS! I slept with the light on.The "free breakfast" in the morning consisted of 2 pieces of toast and a weak cup of coffee.  No fruit/juice/cereal/eggs/milk.  There was a waffle maker, with an empty batter container.  2 of the 4-slice toaster slots did not work.  The hotel staff delivered 3 frozen packaged sausage biscuits as we milled about for our toast and coffee.I won't be back.More</t>
   </si>
   <si>
-    <t>txtootsie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r164894074-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -804,9 +741,6 @@
     <t>This was the most disgusting room I had ever booked! Most of the Econo Lodges I have stayed in are old and worn, but I had never seen one that was filthy. The towels had stains on them, the bathroom was dirty which included standing dirt on the floor and the room stunk horribly of cigarette smoke. There was a cigarette burn on the bedspread and the window curtain was stained with the hem hanging down. The final straw was a blood stain on the sheet-like it hadn't even been changed.  The refrigerator didn't work and there was no ice in the single machine in the building. I couldn't take it-I left. This is a Choice Hotel - there was nothing "choice" about it. I have notified the Choice people and they were horrified. If I could give them zero stars, I would.More</t>
   </si>
   <si>
-    <t>Joe H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r159356516-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -825,9 +759,6 @@
     <t>April 2013</t>
   </si>
   <si>
-    <t>Lizzie562</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r145050788-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -843,9 +774,6 @@
     <t xml:space="preserve">There is no better stay than here,they are great!! The rooms are clean and they are super nice everytime I fly in!! It is quiet and no hassels with the parking, I forgot my key twice and with no questions asked they replaced it!! Coming from out of state is hard enough and they make things so much easier!!!Close to freeway,restuarants,Grapevine Mall and much more!! I recommend them! </t>
   </si>
   <si>
-    <t>Devonna B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r132481511-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -867,9 +795,6 @@
     <t>This hotel is disgusting. When we arrived, some lady was being handcuffed and hauled out by the police. The front desk person looked like he had just got out of bed. The waffle batter at breakfast was so watered down it was terrible.They had bread and corndogs if you didn't want waffles. I didn't realize how bad the waffles were until we stayed at an another hotel and the breakfast was awesome. Same price for the room. When we checked out, I rang the service bell for about 10 minutes. Nobody came.More</t>
   </si>
   <si>
-    <t>dlyates99</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r132375628-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -888,9 +813,6 @@
     <t>I made reservations for 2 rooms, 2 nights at the Lewisville, TX facility, 6/15-6/16.. I was quoted an online senior rate of $81.34, yet was charged $90.38. These were the worst motel rooms we've ever stayed in. First room given was so badly damaged, with the a/c front hanging off, and large cuts in the desk and headboard. We asked to be moved. I am disabled but told the only other room available was upstairs. Upon returning the second day, the room had not been cleaned &amp; the clerk said that the cleaning person didn’t shown up for work until after 1:30pm, yet it was 8:30pm before arrival back to my room. The clerk was not helpful and was never at the front desk. We had to ring the bell continually to get his attention. We were told that the front door would be locked at night but the south end door would be unlocked. Upon returning on Fri night, all doors were locked. This was a bad experience &amp; I will never again book reservations with an Econo Lodge.More</t>
   </si>
   <si>
-    <t>TexanTravelerJ</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r119146542-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -912,9 +834,6 @@
     <t>This hotel shows its age in the carpets and walls.  It just has a dismal feeling.  My room was clean and the price was right (around $40).  There were weird people yelling and banging on the doors in the hallway and that was quite disturbing.  If you are okay with a seedy motel type experience and just need a place to rest your head, this is an acceptable place to stay.  It's just not preferred.  The location is convenient, right off I-35.More</t>
   </si>
   <si>
-    <t>jessamyn</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r116967388-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -936,9 +855,6 @@
     <t>I stayed here overnight when I got in to DFW too late to go to my eventual destination. The people, all four guys, at the front desk were very nice, though seemed to balk when I requested an upper floor room. My room was fine, but it was during the height of the heat wave, the AC was not on, and it was probably 90 degrees in the room when I opened the door. The hallways weren't, or didn't seem to be, air conditioned. I turned the AC on full blast but the room never did get very cool.The rooms seemed somewhat well-designed for a budget motel. Nice looking, ample outlets, clean bathrooms. The public areas are a little less nice. Hallways and dining lounge were somewhat dirty and there was basically nothing left in the breakfast lounge by the time I got downstairs at 8:30 am. No in-room coffee maker. Shower was fine but water never got very cool. Wifi worked well and since I mostly needed to check email, sleep and hit the road, it served my purposes just fine.More</t>
   </si>
   <si>
-    <t>Terraplas</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r116452425-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -954,9 +870,6 @@
     <t>A/c in original room did not work. We were moved to an upgraded room asap. No problems at all after that. Will stay there again.</t>
   </si>
   <si>
-    <t>Adande</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r55676994-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -975,9 +888,6 @@
     <t>January 2010</t>
   </si>
   <si>
-    <t>raineymack</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r39077345-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -996,9 +906,6 @@
     <t>August 2009</t>
   </si>
   <si>
-    <t>cflorez</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r26346194-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1020,9 +927,6 @@
     <t>Total cost for this motel was $50.80 for a very small King bed.I normally don't write reviews, but this was the nastiest motel I stayed in.  It looks good from the outside, but the room itself was just gross!The walls were a mess, no remote control, the sheets had hairs on them, 60% of the lights didn't work and the host said they didn't have any other rooms available.  Why?  I have no doubt they use this for men to bring their girlfriends.  There were hardly any cars in the parking lot.It was so late at night and I had to be somewhere walking distance in the morning was the only reason I didn't seek another motel!!I DO NOT RECOMMEND THIS MOTEL!!More</t>
   </si>
   <si>
-    <t>Paul M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r19469491-Econo_Lodge_Suites-Lewisville_Texas.html</t>
   </si>
   <si>
@@ -1039,9 +943,6 @@
   </si>
   <si>
     <t>August 2008</t>
-  </si>
-  <si>
-    <t>diabloser</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56161-d225895-r6645835-Econo_Lodge_Suites-Lewisville_Texas.html</t>
@@ -1561,47 +1462,43 @@
       <c r="A2" t="n">
         <v>36469</v>
       </c>
-      <c r="B2" t="n">
-        <v>132074</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1615,54 +1512,50 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>36469</v>
       </c>
-      <c r="B3" t="n">
-        <v>132075</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
         <v>59</v>
       </c>
-      <c r="M3" t="n">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -1676,131 +1569,119 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>36469</v>
       </c>
-      <c r="B4" t="n">
-        <v>132076</v>
-      </c>
-      <c r="C4" t="s">
-        <v>61</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="M4" t="n">
-        <v>5</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
-      </c>
       <c r="O4" t="s">
-        <v>68</v>
-      </c>
-      <c r="P4" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
-      <c r="R4" t="n">
-        <v>5</v>
-      </c>
+      <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>5</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>36469</v>
       </c>
-      <c r="B5" t="n">
-        <v>40</v>
-      </c>
-      <c r="C5" t="s">
-        <v>69</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>72</v>
       </c>
-      <c r="K5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" t="n">
-        <v>2</v>
-      </c>
-      <c r="N5" t="s">
-        <v>67</v>
-      </c>
       <c r="O5" t="s">
-        <v>68</v>
-      </c>
-      <c r="P5" t="s"/>
-      <c r="Q5" t="n">
-        <v>2</v>
-      </c>
-      <c r="R5" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -1808,495 +1689,467 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>36469</v>
       </c>
-      <c r="B6" t="n">
-        <v>132077</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
         <v>76</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J6" t="s">
-        <v>79</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" t="s">
-        <v>81</v>
-      </c>
       <c r="M6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="O6" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>2</v>
+      </c>
       <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>2</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>36469</v>
       </c>
-      <c r="B7" t="n">
-        <v>132078</v>
-      </c>
-      <c r="C7" t="s">
-        <v>83</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K7" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>84</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
-        <v>85</v>
-      </c>
-      <c r="J7" t="s">
-        <v>86</v>
-      </c>
-      <c r="K7" t="s">
-        <v>87</v>
-      </c>
-      <c r="L7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
-      <c r="N7" t="s">
-        <v>89</v>
-      </c>
       <c r="O7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
       <c r="R7" t="s"/>
       <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>36469</v>
       </c>
-      <c r="B8" t="n">
-        <v>132079</v>
-      </c>
-      <c r="C8" t="s">
-        <v>91</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
         <v>46</v>
       </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" t="s"/>
+        <v>91</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>36469</v>
       </c>
-      <c r="B9" t="n">
-        <v>132080</v>
-      </c>
-      <c r="C9" t="s">
-        <v>98</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
         <v>46</v>
       </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
       <c r="I9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="J9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="K9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="L9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="M9" t="n">
         <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="O9" t="s">
-        <v>53</v>
-      </c>
-      <c r="P9" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>1</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
       <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>1</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>36469</v>
       </c>
-      <c r="B10" t="n">
-        <v>132081</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
         <v>46</v>
       </c>
-      <c r="H10" t="s">
-        <v>47</v>
-      </c>
       <c r="I10" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
         <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="s"/>
-      <c r="Q10" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1</v>
+      </c>
       <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="s"/>
+      <c r="U10" t="n">
+        <v>1</v>
+      </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>36469</v>
       </c>
-      <c r="B11" t="n">
-        <v>132082</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
         <v>46</v>
       </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="O11" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="n">
-        <v>4</v>
-      </c>
+      <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>4</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>36469</v>
       </c>
-      <c r="B12" t="n">
-        <v>71110</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
         <v>46</v>
       </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="M12" t="n">
         <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>128</v>
+        <v>52</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
-      <c r="S12" t="s"/>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
       <c r="T12" t="s"/>
-      <c r="U12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>36469</v>
       </c>
-      <c r="B13" t="n">
-        <v>57160</v>
-      </c>
-      <c r="C13" t="s">
-        <v>129</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
         <v>46</v>
       </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
       <c r="I13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="J13" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K13" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>124</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -2310,179 +2163,171 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>36469</v>
       </c>
-      <c r="B14" t="n">
-        <v>132083</v>
-      </c>
-      <c r="C14" t="s">
-        <v>137</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
         <v>46</v>
       </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
       <c r="I14" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="J14" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="K14" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="L14" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="O14" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
-      <c r="R14" t="n">
-        <v>3</v>
-      </c>
-      <c r="S14" t="n">
-        <v>2</v>
-      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>3</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>36469</v>
       </c>
-      <c r="B15" t="n">
-        <v>15270</v>
-      </c>
-      <c r="C15" t="s">
-        <v>143</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
         <v>46</v>
       </c>
-      <c r="H15" t="s">
-        <v>47</v>
-      </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
       <c r="O15" t="s">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="s"/>
-      <c r="S15" t="s"/>
+      <c r="R15" t="n">
+        <v>3</v>
+      </c>
+      <c r="S15" t="n">
+        <v>2</v>
+      </c>
       <c r="T15" t="s"/>
-      <c r="U15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>36469</v>
       </c>
-      <c r="B16" t="n">
-        <v>132084</v>
-      </c>
-      <c r="C16" t="s">
-        <v>151</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
         <v>46</v>
       </c>
-      <c r="H16" t="s">
-        <v>47</v>
-      </c>
       <c r="I16" t="s">
-        <v>153</v>
+        <v>138</v>
       </c>
       <c r="J16" t="s">
-        <v>154</v>
+        <v>139</v>
       </c>
       <c r="K16" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="L16" t="s">
-        <v>156</v>
+        <v>141</v>
       </c>
       <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s"/>
-      <c r="O16" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+      <c r="O16" t="s">
+        <v>52</v>
+      </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
@@ -2495,137 +2340,119 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>157</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>36469</v>
       </c>
-      <c r="B17" t="n">
-        <v>132085</v>
-      </c>
-      <c r="C17" t="s">
-        <v>158</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
         <v>46</v>
       </c>
-      <c r="H17" t="s">
-        <v>47</v>
-      </c>
       <c r="I17" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="J17" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K17" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="L17" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
-      </c>
-      <c r="N17" t="s">
-        <v>164</v>
-      </c>
-      <c r="O17" t="s">
-        <v>128</v>
-      </c>
-      <c r="P17" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
-      <c r="R17" t="n">
-        <v>1</v>
-      </c>
-      <c r="S17" t="n">
-        <v>2</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N17" t="s"/>
+      <c r="O17" t="s"/>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>1</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>36469</v>
       </c>
-      <c r="B18" t="n">
-        <v>8047</v>
-      </c>
-      <c r="C18" t="s">
-        <v>165</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
         <v>46</v>
       </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="J18" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="K18" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="L18" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
-      </c>
-      <c r="N18" t="s"/>
-      <c r="O18" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>155</v>
+      </c>
+      <c r="O18" t="s">
+        <v>124</v>
+      </c>
       <c r="P18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -2633,116 +2460,104 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>36469</v>
       </c>
-      <c r="B19" t="n">
-        <v>132086</v>
-      </c>
-      <c r="C19" t="s">
-        <v>171</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
         <v>46</v>
       </c>
-      <c r="H19" t="s">
-        <v>47</v>
-      </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="M19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s"/>
       <c r="O19" t="s"/>
       <c r="P19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
-      <c r="W19" t="s">
-        <v>177</v>
-      </c>
-      <c r="X19" t="s">
-        <v>178</v>
-      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>179</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>36469</v>
       </c>
-      <c r="B20" t="n">
-        <v>44890</v>
-      </c>
-      <c r="C20" t="s">
-        <v>180</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
         <v>46</v>
       </c>
-      <c r="H20" t="s">
-        <v>47</v>
-      </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="M20" t="n">
         <v>1</v>
@@ -2756,80 +2571,78 @@
         <v>1</v>
       </c>
       <c r="R20" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S20" t="n">
         <v>1</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="X20" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="Y20" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>36469</v>
       </c>
-      <c r="B21" t="n">
-        <v>99530</v>
-      </c>
-      <c r="C21" t="s">
-        <v>187</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>169</v>
       </c>
       <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
         <v>46</v>
       </c>
-      <c r="H21" t="s">
-        <v>47</v>
-      </c>
       <c r="I21" t="s">
-        <v>189</v>
+        <v>170</v>
       </c>
       <c r="J21" t="s">
-        <v>190</v>
+        <v>171</v>
       </c>
       <c r="K21" t="s">
-        <v>191</v>
+        <v>172</v>
       </c>
       <c r="L21" t="s">
-        <v>192</v>
+        <v>173</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
-      <c r="N21" t="s">
-        <v>193</v>
-      </c>
-      <c r="O21" t="s">
-        <v>128</v>
-      </c>
+      <c r="N21" t="s"/>
+      <c r="O21" t="s"/>
       <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="Q21" t="s"/>
-      <c r="R21" t="s"/>
-      <c r="S21" t="s"/>
+      <c r="Q21" t="n">
+        <v>1</v>
+      </c>
+      <c r="R21" t="n">
+        <v>1</v>
+      </c>
+      <c r="S21" t="n">
+        <v>1</v>
+      </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
         <v>3</v>
@@ -2838,346 +2651,324 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="X21" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="Y21" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>36469</v>
       </c>
-      <c r="B22" t="n">
-        <v>132087</v>
-      </c>
-      <c r="C22" t="s">
-        <v>195</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
         <v>46</v>
       </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>179</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s"/>
-      <c r="O22" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>180</v>
+      </c>
+      <c r="O22" t="s">
+        <v>124</v>
+      </c>
       <c r="P22" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>5</v>
-      </c>
-      <c r="R22" t="n">
-        <v>4</v>
-      </c>
-      <c r="S22" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
-      <c r="W22" t="s"/>
-      <c r="X22" t="s"/>
+      <c r="W22" t="s">
+        <v>166</v>
+      </c>
+      <c r="X22" t="s">
+        <v>167</v>
+      </c>
       <c r="Y22" t="s">
-        <v>200</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>36469</v>
       </c>
-      <c r="B23" t="n">
-        <v>132088</v>
-      </c>
-      <c r="C23" t="s">
-        <v>201</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
         <v>46</v>
       </c>
-      <c r="H23" t="s">
-        <v>47</v>
-      </c>
       <c r="I23" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="J23" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="K23" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="L23" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="M23" t="n">
-        <v>2</v>
-      </c>
-      <c r="N23" t="s">
-        <v>207</v>
-      </c>
-      <c r="O23" t="s">
-        <v>68</v>
-      </c>
-      <c r="P23" t="s"/>
-      <c r="Q23" t="s"/>
-      <c r="R23" t="s"/>
-      <c r="S23" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N23" t="s"/>
+      <c r="O23" t="s"/>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
       <c r="T23" t="s"/>
-      <c r="U23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s">
-        <v>177</v>
-      </c>
-      <c r="X23" t="s">
-        <v>178</v>
-      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>36469</v>
       </c>
-      <c r="B24" t="n">
-        <v>132089</v>
-      </c>
-      <c r="C24" t="s">
-        <v>209</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
         <v>46</v>
       </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="M24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="O24" t="s">
-        <v>216</v>
-      </c>
-      <c r="P24" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>5</v>
-      </c>
-      <c r="R24" t="n">
-        <v>5</v>
-      </c>
-      <c r="S24" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>5</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>166</v>
+      </c>
+      <c r="X24" t="s">
+        <v>167</v>
+      </c>
       <c r="Y24" t="s">
-        <v>214</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>36469</v>
       </c>
-      <c r="B25" t="n">
-        <v>7524</v>
-      </c>
-      <c r="C25" t="s">
-        <v>217</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
         <v>46</v>
       </c>
-      <c r="H25" t="s">
-        <v>47</v>
-      </c>
       <c r="I25" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="J25" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="K25" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="M25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="O25" t="s">
-        <v>68</v>
+        <v>200</v>
       </c>
       <c r="P25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s">
-        <v>177</v>
-      </c>
-      <c r="X25" t="s">
-        <v>178</v>
-      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>36469</v>
       </c>
-      <c r="B26" t="n">
-        <v>132090</v>
-      </c>
-      <c r="C26" t="s">
-        <v>223</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
         <v>46</v>
       </c>
-      <c r="H26" t="s">
-        <v>47</v>
-      </c>
       <c r="I26" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="J26" t="s">
-        <v>226</v>
+        <v>196</v>
       </c>
       <c r="K26" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="L26" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
-      </c>
-      <c r="N26" t="s"/>
-      <c r="O26" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N26" t="s">
+        <v>180</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
       <c r="P26" t="n">
         <v>1</v>
       </c>
       <c r="Q26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R26" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S26" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
@@ -3187,72 +2978,64 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="X26" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="Y26" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>36469</v>
       </c>
-      <c r="B27" t="n">
-        <v>12178</v>
-      </c>
-      <c r="C27" t="s">
-        <v>230</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
         <v>46</v>
       </c>
-      <c r="H27" t="s">
-        <v>47</v>
-      </c>
       <c r="I27" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="J27" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="K27" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="L27" t="s">
-        <v>235</v>
+        <v>210</v>
       </c>
       <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="s">
-        <v>236</v>
-      </c>
-      <c r="O27" t="s">
-        <v>68</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
       <c r="P27" t="n">
         <v>1</v>
       </c>
       <c r="Q27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R27" t="n">
         <v>3</v>
       </c>
       <c r="S27" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
@@ -3262,66 +3045,62 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>237</v>
+        <v>166</v>
       </c>
       <c r="X27" t="s">
-        <v>238</v>
+        <v>167</v>
       </c>
       <c r="Y27" t="s">
-        <v>239</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>36469</v>
       </c>
-      <c r="B28" t="n">
-        <v>132091</v>
-      </c>
-      <c r="C28" t="s">
-        <v>240</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
         <v>46</v>
       </c>
-      <c r="H28" t="s">
-        <v>47</v>
-      </c>
       <c r="I28" t="s">
-        <v>242</v>
+        <v>213</v>
       </c>
       <c r="J28" t="s">
-        <v>243</v>
+        <v>214</v>
       </c>
       <c r="K28" t="s">
-        <v>244</v>
+        <v>215</v>
       </c>
       <c r="L28" t="s">
-        <v>245</v>
+        <v>216</v>
       </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
       <c r="N28" t="s">
-        <v>246</v>
+        <v>217</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Q28" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R28" t="n">
         <v>3</v>
@@ -3337,66 +3116,62 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>247</v>
+        <v>218</v>
       </c>
       <c r="X28" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="Y28" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>36469</v>
       </c>
-      <c r="B29" t="n">
-        <v>132092</v>
-      </c>
-      <c r="C29" t="s">
-        <v>250</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>251</v>
+        <v>221</v>
       </c>
       <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" t="s">
-        <v>47</v>
-      </c>
       <c r="I29" t="s">
-        <v>252</v>
+        <v>222</v>
       </c>
       <c r="J29" t="s">
-        <v>253</v>
+        <v>223</v>
       </c>
       <c r="K29" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="L29" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>256</v>
+        <v>226</v>
       </c>
       <c r="O29" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Q29" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R29" t="n">
         <v>3</v>
@@ -3412,139 +3187,139 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="X29" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="Y29" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>36469</v>
       </c>
-      <c r="B30" t="n">
-        <v>67131</v>
-      </c>
-      <c r="C30" t="s">
-        <v>260</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>230</v>
       </c>
       <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
         <v>46</v>
       </c>
-      <c r="H30" t="s">
-        <v>47</v>
-      </c>
       <c r="I30" t="s">
-        <v>262</v>
+        <v>231</v>
       </c>
       <c r="J30" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="K30" t="s">
-        <v>264</v>
+        <v>233</v>
       </c>
       <c r="L30" t="s">
-        <v>265</v>
+        <v>234</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N30" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="O30" t="s">
-        <v>216</v>
+        <v>60</v>
       </c>
       <c r="P30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R30" t="n">
         <v>3</v>
       </c>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
       <c r="S30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s"/>
-      <c r="X30" t="s"/>
+      <c r="W30" t="s">
+        <v>236</v>
+      </c>
+      <c r="X30" t="s">
+        <v>237</v>
+      </c>
       <c r="Y30" t="s">
-        <v>265</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>36469</v>
       </c>
-      <c r="B31" t="n">
-        <v>132093</v>
-      </c>
-      <c r="C31" t="s">
-        <v>267</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
         <v>46</v>
       </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
       <c r="I31" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="J31" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="K31" t="s">
-        <v>271</v>
+        <v>242</v>
       </c>
       <c r="L31" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="M31" t="n">
-        <v>5</v>
-      </c>
-      <c r="N31" t="s"/>
-      <c r="O31" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>244</v>
+      </c>
+      <c r="O31" t="s">
+        <v>200</v>
+      </c>
       <c r="P31" t="n">
         <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R31" t="n">
         <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
@@ -3556,141 +3331,125 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>36469</v>
       </c>
-      <c r="B32" t="n">
-        <v>132094</v>
-      </c>
-      <c r="C32" t="s">
-        <v>273</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
         <v>46</v>
       </c>
-      <c r="H32" t="s">
-        <v>47</v>
-      </c>
       <c r="I32" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="J32" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="K32" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="L32" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s">
-        <v>279</v>
-      </c>
-      <c r="O32" t="s">
-        <v>68</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N32" t="s"/>
+      <c r="O32" t="s"/>
       <c r="P32" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>177</v>
-      </c>
-      <c r="X32" t="s">
-        <v>178</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>280</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>36469</v>
       </c>
-      <c r="B33" t="n">
-        <v>132095</v>
-      </c>
-      <c r="C33" t="s">
-        <v>281</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
         <v>46</v>
       </c>
-      <c r="H33" t="s">
-        <v>47</v>
-      </c>
       <c r="I33" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="J33" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="K33" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="L33" t="s">
-        <v>286</v>
+        <v>254</v>
       </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
       <c r="N33" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="O33" t="s">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="P33" t="n">
         <v>2</v>
       </c>
       <c r="Q33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="R33" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="T33" t="s"/>
       <c r="U33" t="n">
@@ -3700,289 +3459,277 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="X33" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="Y33" t="s">
-        <v>287</v>
+        <v>256</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>36469</v>
       </c>
-      <c r="B34" t="n">
-        <v>132096</v>
-      </c>
-      <c r="C34" t="s">
-        <v>288</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
         <v>46</v>
       </c>
-      <c r="H34" t="s">
-        <v>47</v>
-      </c>
       <c r="I34" t="s">
-        <v>290</v>
+        <v>258</v>
       </c>
       <c r="J34" t="s">
-        <v>291</v>
+        <v>259</v>
       </c>
       <c r="K34" t="s">
-        <v>292</v>
+        <v>260</v>
       </c>
       <c r="L34" t="s">
-        <v>293</v>
+        <v>261</v>
       </c>
       <c r="M34" t="n">
+        <v>1</v>
+      </c>
+      <c r="N34" t="s">
+        <v>255</v>
+      </c>
+      <c r="O34" t="s">
+        <v>52</v>
+      </c>
+      <c r="P34" t="n">
         <v>2</v>
       </c>
-      <c r="N34" t="s">
-        <v>294</v>
-      </c>
-      <c r="O34" t="s">
-        <v>216</v>
-      </c>
-      <c r="P34" t="n">
-        <v>3</v>
-      </c>
       <c r="Q34" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S34" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="X34" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="Y34" t="s">
-        <v>295</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>36469</v>
       </c>
-      <c r="B35" t="n">
-        <v>132097</v>
-      </c>
-      <c r="C35" t="s">
-        <v>296</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
         <v>46</v>
       </c>
-      <c r="H35" t="s">
-        <v>47</v>
-      </c>
       <c r="I35" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="J35" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="K35" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="L35" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>268</v>
+      </c>
+      <c r="O35" t="s">
+        <v>200</v>
+      </c>
+      <c r="P35" t="n">
         <v>3</v>
       </c>
-      <c r="N35" t="s">
-        <v>302</v>
-      </c>
-      <c r="O35" t="s">
-        <v>128</v>
-      </c>
-      <c r="P35" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
+      <c r="Q35" t="n">
+        <v>2</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
       <c r="S35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T35" t="s"/>
       <c r="U35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="X35" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="Y35" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>36469</v>
       </c>
-      <c r="B36" t="n">
-        <v>132098</v>
-      </c>
-      <c r="C36" t="s">
-        <v>304</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>305</v>
+        <v>270</v>
       </c>
       <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
         <v>46</v>
       </c>
-      <c r="H36" t="s">
-        <v>47</v>
-      </c>
       <c r="I36" t="s">
-        <v>306</v>
+        <v>271</v>
       </c>
       <c r="J36" t="s">
-        <v>307</v>
+        <v>272</v>
       </c>
       <c r="K36" t="s">
-        <v>308</v>
+        <v>273</v>
       </c>
       <c r="L36" t="s">
-        <v>309</v>
+        <v>274</v>
       </c>
       <c r="M36" t="n">
-        <v>4</v>
-      </c>
-      <c r="N36" t="s"/>
-      <c r="O36" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>275</v>
+      </c>
+      <c r="O36" t="s">
+        <v>124</v>
+      </c>
       <c r="P36" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s"/>
-      <c r="X36" t="s"/>
+      <c r="W36" t="s">
+        <v>166</v>
+      </c>
+      <c r="X36" t="s">
+        <v>167</v>
+      </c>
       <c r="Y36" t="s">
-        <v>309</v>
+        <v>276</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>36469</v>
       </c>
-      <c r="B37" t="n">
-        <v>132099</v>
-      </c>
-      <c r="C37" t="s">
-        <v>310</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
         <v>46</v>
       </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
       <c r="I37" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
       <c r="J37" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="K37" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="M37" t="n">
-        <v>5</v>
-      </c>
-      <c r="N37" t="s">
-        <v>316</v>
-      </c>
-      <c r="O37" t="s">
-        <v>128</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N37" t="s"/>
+      <c r="O37" t="s"/>
       <c r="P37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -3990,54 +3737,50 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>36469</v>
       </c>
-      <c r="B38" t="n">
-        <v>132100</v>
-      </c>
-      <c r="C38" t="s">
-        <v>317</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>318</v>
+        <v>282</v>
       </c>
       <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
         <v>46</v>
       </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
       <c r="I38" t="s">
-        <v>319</v>
+        <v>283</v>
       </c>
       <c r="J38" t="s">
-        <v>320</v>
+        <v>284</v>
       </c>
       <c r="K38" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="L38" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>323</v>
+        <v>287</v>
       </c>
       <c r="O38" t="s">
-        <v>68</v>
+        <v>124</v>
       </c>
       <c r="P38" t="n">
         <v>5</v>
@@ -4046,7 +3789,7 @@
         <v>5</v>
       </c>
       <c r="R38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S38" t="n">
         <v>5</v>
@@ -4061,70 +3804,66 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>322</v>
+        <v>286</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>36469</v>
       </c>
-      <c r="B39" t="n">
-        <v>132101</v>
-      </c>
-      <c r="C39" t="s">
-        <v>324</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>325</v>
+        <v>288</v>
       </c>
       <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
         <v>46</v>
       </c>
-      <c r="H39" t="s">
-        <v>47</v>
-      </c>
       <c r="I39" t="s">
-        <v>326</v>
+        <v>289</v>
       </c>
       <c r="J39" t="s">
-        <v>327</v>
+        <v>290</v>
       </c>
       <c r="K39" t="s">
-        <v>328</v>
+        <v>291</v>
       </c>
       <c r="L39" t="s">
-        <v>329</v>
+        <v>292</v>
       </c>
       <c r="M39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>330</v>
+        <v>293</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R39" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="S39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4132,70 +3871,66 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>36469</v>
       </c>
-      <c r="B40" t="n">
-        <v>7271</v>
-      </c>
-      <c r="C40" t="s">
-        <v>332</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
         <v>46</v>
       </c>
-      <c r="H40" t="s">
-        <v>47</v>
-      </c>
       <c r="I40" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="J40" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="K40" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="L40" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>299</v>
+      </c>
+      <c r="O40" t="s">
+        <v>60</v>
+      </c>
+      <c r="P40" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1</v>
+      </c>
+      <c r="R40" t="n">
         <v>2</v>
       </c>
-      <c r="N40" t="s">
-        <v>338</v>
-      </c>
-      <c r="O40" t="s">
-        <v>128</v>
-      </c>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>1</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -4203,64 +3938,127 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>337</v>
+        <v>300</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>36469</v>
       </c>
-      <c r="B41" t="n">
-        <v>132102</v>
-      </c>
-      <c r="C41" t="s">
-        <v>339</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
         <v>46</v>
       </c>
-      <c r="H41" t="s">
-        <v>47</v>
-      </c>
       <c r="I41" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="J41" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="K41" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="L41" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
-      <c r="P41" t="s"/>
-      <c r="Q41" t="s"/>
-      <c r="R41" t="s"/>
-      <c r="S41" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N41" t="s">
+        <v>306</v>
+      </c>
+      <c r="O41" t="s">
+        <v>124</v>
+      </c>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1</v>
+      </c>
+      <c r="R41" t="n">
+        <v>3</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
       <c r="T41" t="s"/>
-      <c r="U41" t="s"/>
+      <c r="U41" t="n">
+        <v>2</v>
+      </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>344</v>
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>36469</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>307</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>308</v>
+      </c>
+      <c r="J42" t="s">
+        <v>309</v>
+      </c>
+      <c r="K42" t="s">
+        <v>310</v>
+      </c>
+      <c r="L42" t="s">
+        <v>311</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s"/>
+      <c r="O42" t="s"/>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
